--- a/tests/midterm1/zjui-midterm1-questiongrades.xlsx
+++ b/tests/midterm1/zjui-midterm1-questiongrades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Q2</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>#Wrong</t>
+  </si>
+  <si>
+    <t>student 1</t>
+  </si>
+  <si>
+    <t>student 2</t>
+  </si>
+  <si>
+    <t>student 3</t>
   </si>
 </sst>
 </file>
@@ -450,10 +459,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -543,103 +552,106 @@
         <v>24</v>
       </c>
       <c r="B2" s="1">
-        <f>SUM(B3:B34)</f>
+        <f t="shared" ref="B2:Y2" si="0">SUM(B3:B34)</f>
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <f>SUM(C3:C34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(D3:D34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <f>SUM(E3:E34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <f>SUM(F3:F34)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G2" s="1">
-        <f>SUM(G3:G34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <f>SUM(H3:H34)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I2" s="1">
-        <f>SUM(I3:I34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <f>SUM(J3:J34)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K2" s="1">
-        <f>SUM(K3:K34)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L2" s="1">
-        <f>SUM(L3:L34)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="M2" s="1">
-        <f>SUM(M3:M34)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N2" s="1">
-        <f>SUM(N3:N34)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O2" s="1">
-        <f>SUM(O3:O34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <f>SUM(P3:P34)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Q2" s="1">
-        <f>SUM(Q3:Q34)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="R2" s="1">
-        <f>SUM(R3:R34)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="S2" s="1">
-        <f>SUM(S3:S34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T2" s="1">
-        <f>SUM(T3:T34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U2" s="1">
-        <f>SUM(U3:U34)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="V2" s="1">
-        <f>SUM(V3:V34)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="W2" s="1">
-        <f>SUM(W3:W34)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="X2" s="1">
-        <f>SUM(X3:X34)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="Y2" s="1">
-        <f>SUM(Y3:Y34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -666,6 +678,9 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
       <c r="M4">
         <v>1</v>
       </c>
@@ -674,6 +689,9 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
